--- a/flow/channels.xlsx
+++ b/flow/channels.xlsx
@@ -16,48 +16,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Proxy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Auth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flow-post-create</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flow-post-vote</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Discuz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Module</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Channel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flow-file-upload</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flow-post-comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flow-post-like</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flow-comment-like</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>flow-page-view</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>flow-user-create</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Auth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>flow-post-create</t>
-  </si>
-  <si>
-    <t>flow-post-create</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>flow-post-comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>flow-post-vote</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Discuz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Module</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Channel</t>
+    <t>flow-user-signup</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -105,7 +114,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -196,13 +205,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -226,6 +248,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -530,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.95" customHeight="1"/>
@@ -544,57 +569,70 @@
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" ht="21.95" customHeight="1">
       <c r="A1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="21.95" customHeight="1">
+      <c r="A2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="21.95" customHeight="1">
+      <c r="A3" s="11"/>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="21.95" customHeight="1">
+      <c r="A4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="21.95" customHeight="1">
+      <c r="A5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="21.95" customHeight="1">
+      <c r="A6" s="10"/>
+      <c r="B6" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="21.95" customHeight="1">
-      <c r="A2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="21.95" customHeight="1">
-      <c r="A3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="21.95" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="21.95" customHeight="1">
-      <c r="A5" s="9"/>
-      <c r="B5" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="21.95" customHeight="1">
-      <c r="A6" s="9"/>
-      <c r="B6" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="21.95" customHeight="1">
       <c r="A7" s="10"/>
-      <c r="B7" s="3" t="s">
-        <v>7</v>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="21.95" customHeight="1">
+      <c r="A8" s="10"/>
+      <c r="B8" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="21.95" customHeight="1">
+      <c r="A9" s="11"/>
+      <c r="B9" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A4:A7"/>
+  <mergeCells count="2">
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="A2:A3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
